--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lgals3bp-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lgals3bp-Itgb1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>53.08554433333333</v>
+        <v>16.52389666666667</v>
       </c>
       <c r="H2">
-        <v>159.256633</v>
+        <v>49.57169</v>
       </c>
       <c r="I2">
-        <v>0.5980804157037442</v>
+        <v>0.316560480540946</v>
       </c>
       <c r="J2">
-        <v>0.598080415703744</v>
+        <v>0.316560480540946</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N2">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O2">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P2">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q2">
-        <v>6213.374338112126</v>
+        <v>1273.819317642589</v>
       </c>
       <c r="R2">
-        <v>55920.36904300914</v>
+        <v>11464.3738587833</v>
       </c>
       <c r="S2">
-        <v>0.1940989634328117</v>
+        <v>0.0760953361367302</v>
       </c>
       <c r="T2">
-        <v>0.1940989634328117</v>
+        <v>0.0760953361367302</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>53.08554433333333</v>
+        <v>16.52389666666667</v>
       </c>
       <c r="H3">
-        <v>159.256633</v>
+        <v>49.57169</v>
       </c>
       <c r="I3">
-        <v>0.5980804157037442</v>
+        <v>0.316560480540946</v>
       </c>
       <c r="J3">
-        <v>0.598080415703744</v>
+        <v>0.316560480540946</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>304.740112</v>
       </c>
       <c r="O3">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P3">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q3">
-        <v>5392.431575240322</v>
+        <v>1678.498040292142</v>
       </c>
       <c r="R3">
-        <v>48531.88417716289</v>
+        <v>15106.48236262928</v>
       </c>
       <c r="S3">
-        <v>0.1684536166952609</v>
+        <v>0.1002700075370588</v>
       </c>
       <c r="T3">
-        <v>0.1684536166952608</v>
+        <v>0.1002700075370588</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>53.08554433333333</v>
+        <v>16.52389666666667</v>
       </c>
       <c r="H4">
-        <v>159.256633</v>
+        <v>49.57169</v>
       </c>
       <c r="I4">
-        <v>0.5980804157037442</v>
+        <v>0.316560480540946</v>
       </c>
       <c r="J4">
-        <v>0.598080415703744</v>
+        <v>0.316560480540946</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>426.080368</v>
       </c>
       <c r="O4">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P4">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q4">
-        <v>7539.56942167566</v>
+        <v>2346.835990842435</v>
       </c>
       <c r="R4">
-        <v>67856.12479508095</v>
+        <v>21121.52391758192</v>
       </c>
       <c r="S4">
-        <v>0.2355278355756715</v>
+        <v>0.1401951368671571</v>
       </c>
       <c r="T4">
-        <v>0.2355278355756714</v>
+        <v>0.1401951368671571</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>90.188875</v>
       </c>
       <c r="I5">
-        <v>0.3386998634578254</v>
+        <v>0.575938274637143</v>
       </c>
       <c r="J5">
-        <v>0.3386998634578254</v>
+        <v>0.5759382746371431</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N5">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O5">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P5">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q5">
-        <v>3518.705820612208</v>
+        <v>2317.539127906527</v>
       </c>
       <c r="R5">
-        <v>31668.35238550988</v>
+        <v>20857.85215115875</v>
       </c>
       <c r="S5">
-        <v>0.1099204900977118</v>
+        <v>0.1384450027610223</v>
       </c>
       <c r="T5">
-        <v>0.1099204900977118</v>
+        <v>0.1384450027610223</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>90.188875</v>
       </c>
       <c r="I6">
-        <v>0.3386998634578254</v>
+        <v>0.575938274637143</v>
       </c>
       <c r="J6">
-        <v>0.3386998634578254</v>
+        <v>0.5759382746371431</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>304.740112</v>
       </c>
       <c r="O6">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P6">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q6">
         <v>3053.796429850444</v>
@@ -818,10 +818,10 @@
         <v>27484.167868654</v>
       </c>
       <c r="S6">
-        <v>0.09539723334114944</v>
+        <v>0.1824274939185824</v>
       </c>
       <c r="T6">
-        <v>0.09539723334114943</v>
+        <v>0.1824274939185824</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>90.188875</v>
       </c>
       <c r="I7">
-        <v>0.3386998634578254</v>
+        <v>0.575938274637143</v>
       </c>
       <c r="J7">
-        <v>0.3386998634578254</v>
+        <v>0.5759382746371431</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>426.080368</v>
       </c>
       <c r="O7">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P7">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q7">
         <v>4269.745449945111</v>
@@ -880,10 +880,10 @@
         <v>38427.709049506</v>
       </c>
       <c r="S7">
-        <v>0.1333821400189642</v>
+        <v>0.2550657779575383</v>
       </c>
       <c r="T7">
-        <v>0.1333821400189642</v>
+        <v>0.2550657779575383</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>16.834124</v>
       </c>
       <c r="I8">
-        <v>0.06321972083843048</v>
+        <v>0.1075012448219109</v>
       </c>
       <c r="J8">
-        <v>0.06321972083843048</v>
+        <v>0.1075012448219109</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N8">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O8">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P8">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q8">
-        <v>656.7808956892707</v>
+        <v>432.5781982980755</v>
       </c>
       <c r="R8">
-        <v>5911.028061203436</v>
+        <v>3893.20378468268</v>
       </c>
       <c r="S8">
-        <v>0.02051711101225792</v>
+        <v>0.02584132847492989</v>
       </c>
       <c r="T8">
-        <v>0.02051711101225792</v>
+        <v>0.02584132847492989</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>16.834124</v>
       </c>
       <c r="I9">
-        <v>0.06321972083843048</v>
+        <v>0.1075012448219109</v>
       </c>
       <c r="J9">
-        <v>0.06321972083843048</v>
+        <v>0.1075012448219109</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>304.740112</v>
       </c>
       <c r="O9">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P9">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q9">
         <v>570.0036481313209</v>
@@ -1004,10 +1004,10 @@
         <v>5130.032833181888</v>
       </c>
       <c r="S9">
-        <v>0.01780628547946567</v>
+        <v>0.03405084112241851</v>
       </c>
       <c r="T9">
-        <v>0.01780628547946566</v>
+        <v>0.0340508411224185</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>16.834124</v>
       </c>
       <c r="I10">
-        <v>0.06321972083843048</v>
+        <v>0.1075012448219109</v>
       </c>
       <c r="J10">
-        <v>0.06321972083843048</v>
+        <v>0.1075012448219109</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>426.080368</v>
       </c>
       <c r="O10">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P10">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q10">
         <v>796.9655276530702</v>
@@ -1066,10 +1066,10 @@
         <v>7172.689748877632</v>
       </c>
       <c r="S10">
-        <v>0.0248963243467069</v>
+        <v>0.04760907522456253</v>
       </c>
       <c r="T10">
-        <v>0.0248963243467069</v>
+        <v>0.04760907522456253</v>
       </c>
     </row>
   </sheetData>
